--- a/LawfulMerryFactorial/src/PLANO DE TESTE-1 (1).xlsx
+++ b/LawfulMerryFactorial/src/PLANO DE TESTE-1 (1).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>CLIENTE</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>Foi realizado o tratamento de exceções?</t>
+  </si>
+  <si>
+    <t>Métodos: verificarUsuario() e conectarBD()</t>
+  </si>
+  <si>
+    <t>Faltou enviar mensagens do erro para o terminal</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -549,6 +555,9 @@
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4143,17 +4152,21 @@
       <c r="E11" s="37"/>
     </row>
     <row r="12">
-      <c r="A12" s="37">
+      <c r="A12" s="34">
         <v>8.0</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
+      <c r="C12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
